--- a/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -310,9 +310,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>DV-3116</t>
-  </si>
-  <si>
     <t>房态图批量操作菜单移除</t>
     <rPh sb="0" eb="1">
       <t>fang'tai'tu</t>
@@ -355,6 +352,9 @@
   <si>
     <t>DV-3204</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -759,6 +759,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -796,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,8 +1087,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1097,7 +1138,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1444,7 +1485,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1528,13 +1569,13 @@
       <c r="R1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="90" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="50" t="s">
@@ -1554,11 +1595,11 @@
       <c r="C2" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>76</v>
@@ -1576,7 +1617,7 @@
         <v>42835</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="78" t="s">
         <v>77</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1594,17 +1635,17 @@
       <c r="Q2" s="59">
         <v>42835</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="73"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="92">
+        <v>10662</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="72"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
@@ -1616,14 +1657,14 @@
       <c r="C3" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="78" t="s">
-        <v>81</v>
+      <c r="D3" s="77" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>69</v>
@@ -1638,8 +1679,8 @@
         <v>42835</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="79" t="s">
-        <v>84</v>
+      <c r="L3" s="78" t="s">
+        <v>83</v>
       </c>
       <c r="M3" s="58" t="s">
         <v>78</v>
@@ -1648,7 +1689,7 @@
         <v>70</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P3" s="62" t="s">
         <v>71</v>
@@ -1656,17 +1697,17 @@
       <c r="Q3" s="59">
         <v>42835</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73"/>
+      <c r="S3" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="94"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="72"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -1691,8 +1732,8 @@
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
@@ -1717,8 +1758,8 @@
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="67"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="72"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
@@ -1743,8 +1784,8 @@
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
       <c r="V6" s="67"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="72"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
@@ -1769,8 +1810,8 @@
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="67"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="72"/>
     </row>
     <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
@@ -1795,8 +1836,8 @@
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="67"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="72"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
@@ -1817,12 +1858,12 @@
       <c r="P9" s="62"/>
       <c r="Q9" s="59"/>
       <c r="R9" s="62"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="67"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="72"/>
     </row>
     <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
@@ -1847,8 +1888,8 @@
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
       <c r="V10" s="67"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
@@ -1873,8 +1914,8 @@
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
       <c r="V11" s="67"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="72"/>
     </row>
     <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
@@ -1899,8 +1940,8 @@
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
       <c r="V12" s="67"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
@@ -1925,8 +1966,8 @@
       <c r="T13" s="56"/>
       <c r="U13" s="56"/>
       <c r="V13" s="67"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
@@ -1951,8 +1992,8 @@
       <c r="T14" s="56"/>
       <c r="U14" s="56"/>
       <c r="V14" s="67"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
@@ -1977,8 +2018,8 @@
       <c r="T15" s="56"/>
       <c r="U15" s="56"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="72"/>
     </row>
     <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
@@ -2003,8 +2044,8 @@
       <c r="T16" s="56"/>
       <c r="U16" s="56"/>
       <c r="V16" s="56"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
@@ -2029,8 +2070,8 @@
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="73"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="72"/>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
@@ -2130,7 +2171,7 @@
       <c r="T21" s="56"/>
       <c r="U21" s="56"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="74"/>
+      <c r="W21" s="73"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
@@ -2155,7 +2196,7 @@
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="74"/>
+      <c r="W22" s="73"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
@@ -2180,7 +2221,7 @@
       <c r="T23" s="56"/>
       <c r="U23" s="56"/>
       <c r="V23" s="56"/>
-      <c r="W23" s="74"/>
+      <c r="W23" s="73"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
@@ -2201,11 +2242,11 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="76"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="75"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
@@ -2226,11 +2267,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="76"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="75"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
@@ -2251,11 +2292,11 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="76"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="75"/>
     </row>
     <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -2276,11 +2317,11 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="76"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="75"/>
     </row>
     <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -2301,11 +2342,11 @@
       <c r="P28" s="62"/>
       <c r="Q28" s="59"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="76"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="75"/>
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
@@ -2326,10 +2367,10 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
       <c r="W29" s="62"/>
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
@@ -2355,7 +2396,7 @@
       <c r="T30" s="56"/>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="74"/>
+      <c r="W30" s="73"/>
     </row>
     <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
@@ -2380,7 +2421,7 @@
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="74"/>
+      <c r="W31" s="73"/>
     </row>
     <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
@@ -2405,7 +2446,7 @@
       <c r="T32" s="56"/>
       <c r="U32" s="56"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="74"/>
+      <c r="W32" s="73"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
@@ -2426,11 +2467,11 @@
       <c r="P33" s="62"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="76"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="75"/>
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
@@ -2455,7 +2496,7 @@
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="72"/>
+      <c r="W34" s="71"/>
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
@@ -2480,7 +2521,7 @@
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="74"/>
+      <c r="W35" s="73"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
@@ -2505,7 +2546,7 @@
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="74"/>
+      <c r="W36" s="73"/>
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
@@ -2530,7 +2571,7 @@
       <c r="T37" s="56"/>
       <c r="U37" s="56"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="74"/>
+      <c r="W37" s="73"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
@@ -2555,7 +2596,7 @@
       <c r="T38" s="56"/>
       <c r="U38" s="56"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="74"/>
+      <c r="W38" s="73"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
@@ -2580,7 +2621,7 @@
       <c r="T39" s="56"/>
       <c r="U39" s="56"/>
       <c r="V39" s="56"/>
-      <c r="W39" s="74"/>
+      <c r="W39" s="73"/>
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
@@ -2605,7 +2646,7 @@
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
       <c r="V40" s="56"/>
-      <c r="W40" s="74"/>
+      <c r="W40" s="73"/>
     </row>
     <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
@@ -2630,7 +2671,7 @@
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="74"/>
+      <c r="W41" s="73"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
@@ -2655,7 +2696,7 @@
       <c r="T42" s="56"/>
       <c r="U42" s="56"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="74"/>
+      <c r="W42" s="73"/>
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
@@ -2680,7 +2721,7 @@
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="74"/>
+      <c r="W43" s="73"/>
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
@@ -2705,7 +2746,7 @@
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="74"/>
+      <c r="W44" s="73"/>
     </row>
     <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
@@ -2726,11 +2767,11 @@
       <c r="P45" s="62"/>
       <c r="Q45" s="59"/>
       <c r="R45" s="62"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="74"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="73"/>
     </row>
     <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
@@ -2751,11 +2792,11 @@
       <c r="P46" s="62"/>
       <c r="Q46" s="59"/>
       <c r="R46" s="62"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="74"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="73"/>
     </row>
     <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
@@ -5745,9 +5786,6 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -5924,19 +5962,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5974,8 +6012,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5987,8 +6025,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6000,8 +6038,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6013,8 +6051,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6026,8 +6064,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6039,8 +6077,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6052,8 +6090,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6065,8 +6103,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6127,36 +6165,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6441,36 +6479,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6755,36 +6793,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7071,36 +7109,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
